--- a/log-collector-tool/client/examples/task_management_sample.xlsx
+++ b/log-collector-tool/client/examples/task_management_sample.xlsx
@@ -37,7 +37,7 @@
     <t>2023-11-22 09:00:00</t>
   </si>
   <si>
-    <t>認証エラー TrackID: ABC123 発生</t>
+    <t>認証エラー TrackID: ABC123 発生、trackId=DEF789 でも確認、[ID: MNO678] も関連</t>
   </si>
   <si>
     <t>田中</t>
@@ -73,7 +73,7 @@
     <t>2023-11-22 09:30:00</t>
   </si>
   <si>
-    <t>API応答遅延 TrackID: XYZ456 DB503エラー</t>
+    <t>API応答遅延 TrackID: XYZ456 DB503エラー、#PQR901 と (識別: STU234) でも同様</t>
   </si>
   <si>
     <t>山田</t>
@@ -106,7 +106,7 @@
     <t>2023-11-22 10:00:00</t>
   </si>
   <si>
-    <t>バックアップ失敗 BACKUP55 TrackID: GHI012</t>
+    <t>バックアップ失敗 trackId=GHI012 BACKUP55、[ID: VWX567] および #YZA890 で影響</t>
   </si>
   <si>
     <t>高橋</t>
@@ -133,7 +133,7 @@
     <t>2023-11-22 10:30:00</t>
   </si>
   <si>
-    <t>セッション切断 TrackID: JKL345 AUTH101</t>
+    <t>セッション切断 TrackID: JKL345 AUTH101、(識別: MNO678) も切断</t>
   </si>
   <si>
     <t>渡辺</t>
@@ -731,6 +731,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/log-collector-tool/client/examples/task_management_sample.xlsx
+++ b/log-collector-tool/client/examples/task_management_sample.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Tasks" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="タスク管理" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>インシデントID</t>
   </si>
@@ -34,59 +34,98 @@
     <t>INC001</t>
   </si>
   <si>
-    <t>2025-11-22 21:51:00</t>
-  </si>
-  <si>
-    <t>認証エラー TrackID: SAMPLE001 発生</t>
-  </si>
-  <si>
-    <t>田中</t>
+    <t>2025-11-22 22:25:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">認証エラーが発生しました。以下のエラーログを確認してください。
+2025-11-22 22:25:26 [AUTH] ERROR: Authentication failed for user admin TrackID: AUTH2025
+システム管理者に連絡して原因を調査中です。</t>
+  </si>
+  <si>
+    <t>山田太郎</t>
   </si>
   <si>
     <t>情報収集中</t>
   </si>
   <si>
-    <t>ログ調査開始</t>
+    <t>ログ収集中</t>
   </si>
   <si>
     <t>INC002</t>
   </si>
   <si>
-    <t>2025-11-22 21:52:00</t>
-  </si>
-  <si>
-    <t>複数ID関連エラー TrackID: MULTI001 と TrackID: MULTI002 で発生</t>
-  </si>
-  <si>
-    <t>佐藤</t>
-  </si>
-  <si>
-    <t>複数ID調査中</t>
+    <t>2025-11-22 22:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データベース接続タイムアウトが発生しました。
+エラーログ:
+2025-11-22 22:30:16 [DB] ERROR: Failed to execute query TrackID: DB20251122001 ProgramID: DBCONN101
+データベースチームに調査を依頼しました。</t>
+  </si>
+  <si>
+    <t>鈴木花子</t>
+  </si>
+  <si>
+    <t>原因調査中</t>
   </si>
   <si>
     <t>INC003</t>
   </si>
   <si>
-    <t>2023-11-22 09:15:00</t>
-  </si>
-  <si>
-    <t>データベース接続エラー</t>
-  </si>
-  <si>
-    <t>山田</t>
+    <t>2025-11-22 21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APIレスポンス遅延が報告されました。
+2025-11-22 21:00:30 [API] WARN: Response time exceeded threshold TrackID: API2025110301 ProgramID: APIGW202
+スケーリング対応を実施中です。</t>
+  </si>
+  <si>
+    <t>佐藤次郎</t>
+  </si>
+  <si>
+    <t>スケーリング対応中</t>
+  </si>
+  <si>
+    <t>INC004</t>
+  </si>
+  <si>
+    <t>2025-11-22 20:00:00</t>
+  </si>
+  <si>
+    <t>定期メンテナンス完了。特に問題なし。</t>
+  </si>
+  <si>
+    <t>田中三郎</t>
   </si>
   <si>
     <t>対応完了</t>
   </si>
   <si>
-    <t>解決済み</t>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>INC005</t>
+  </si>
+  <si>
+    <t>2025-11-22 23:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">関連する複数のトランザクションでエラーが発生しました。
+2025-11-22 23:00:45 [TXN] ERROR: Transaction correlation failure TrackID: TXN001 related to TrackID: TXN002
+関連性を調査中です。</t>
+  </si>
+  <si>
+    <t>高橋美咲</t>
+  </si>
+  <si>
+    <t>関連調査中</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -94,13 +133,21 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,8 +162,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,26 +504,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="80" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -533,10 +588,50 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
